--- a/Unidades.xlsx
+++ b/Unidades.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="209">
   <si>
     <t>Distância</t>
   </si>
@@ -593,6 +593,78 @@
   </si>
   <si>
     <t>esferorradiano</t>
+  </si>
+  <si>
+    <t>grama</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>oz</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>lbt</t>
+  </si>
+  <si>
+    <t>libra</t>
+  </si>
+  <si>
+    <t>onça</t>
+  </si>
+  <si>
+    <t>libra troy</t>
+  </si>
+  <si>
+    <t>tonelada curta</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t>tonelada UK</t>
+  </si>
+  <si>
+    <t>tonUK</t>
+  </si>
+  <si>
+    <t>tonelada métrica</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>polegada troy</t>
+  </si>
+  <si>
+    <t>ozt</t>
+  </si>
+  <si>
+    <t>carat</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>grão</t>
+  </si>
+  <si>
+    <t>grain</t>
+  </si>
+  <si>
+    <t>massa atômica</t>
+  </si>
+  <si>
+    <t>mole</t>
+  </si>
+  <si>
+    <t>mol</t>
   </si>
 </sst>
 </file>
@@ -650,9 +722,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,6 +736,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1573,617 +1645,775 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
         <v>0.91439999999999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.30480000000000002</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
         <v>9460730472580800</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
         <v>149597870700</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
         <v>1609.3440000000001</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
         <v>1852</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
         <v>5.0292000000000003</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
         <v>2.5400000000000001E-5</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
         <v>1E-10</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>1E-14</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>100</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>10</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>63.614907234075197</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>0.1</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>0.16565810018405477</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>0.16392485863252917</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>0.98178798466952188</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>8.2829050092027387E-2</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>6.1848767420949788E-2</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>3.0924383710474894E-2</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>3.0514482954149137E-2</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>0.54173572139704829</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>0.20871612750748442</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1.6605387300000001E-27</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Unidades.xlsx
+++ b/Unidades.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="227">
   <si>
     <t>Distância</t>
   </si>
@@ -640,24 +640,15 @@
     <t>t</t>
   </si>
   <si>
-    <t>polegada troy</t>
-  </si>
-  <si>
     <t>ozt</t>
   </si>
   <si>
     <t>carat</t>
   </si>
   <si>
-    <t>ct</t>
-  </si>
-  <si>
     <t>grão</t>
   </si>
   <si>
-    <t>grain</t>
-  </si>
-  <si>
     <t>massa atômica</t>
   </si>
   <si>
@@ -665,6 +656,69 @@
   </si>
   <si>
     <t>mol</t>
+  </si>
+  <si>
+    <t>onça troy</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>kt</t>
+  </si>
+  <si>
+    <t>Mole</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>segundo</t>
+  </si>
+  <si>
+    <t>minuto</t>
+  </si>
+  <si>
+    <t>hora</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>yr</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Frequência</t>
+  </si>
+  <si>
+    <t>hertz</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>rotações por minuto</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>1/60</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -713,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -732,6 +786,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1645,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,30 +1720,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="3" t="s">
         <v>178</v>
       </c>
@@ -1695,7 +1752,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1715,7 +1772,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>126</v>
       </c>
@@ -1733,7 +1790,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>127</v>
       </c>
@@ -1751,7 +1808,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>128</v>
       </c>
@@ -1769,7 +1826,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>129</v>
       </c>
@@ -1787,7 +1844,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>130</v>
       </c>
@@ -1805,7 +1862,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>131</v>
       </c>
@@ -1823,7 +1880,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>132</v>
       </c>
@@ -1841,7 +1898,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>133</v>
       </c>
@@ -1859,7 +1916,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>135</v>
       </c>
@@ -1877,7 +1934,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
         <v>169</v>
       </c>
@@ -1895,7 +1952,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
         <v>170</v>
       </c>
@@ -1913,7 +1970,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
         <v>137</v>
       </c>
@@ -1931,7 +1988,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>138</v>
       </c>
@@ -1949,7 +2006,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
         <v>141</v>
       </c>
@@ -1967,7 +2024,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
         <v>143</v>
       </c>
@@ -1985,7 +2042,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>144</v>
       </c>
@@ -2003,7 +2060,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
         <v>146</v>
       </c>
@@ -2021,7 +2078,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
         <v>147</v>
       </c>
@@ -2039,7 +2096,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>149</v>
       </c>
@@ -2057,7 +2114,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>151</v>
       </c>
@@ -2075,7 +2132,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
         <v>153</v>
       </c>
@@ -2093,7 +2150,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>155</v>
       </c>
@@ -2111,7 +2168,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
         <v>156</v>
       </c>
@@ -2129,7 +2186,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
         <v>158</v>
       </c>
@@ -2147,7 +2204,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
         <v>160</v>
       </c>
@@ -2165,7 +2222,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
         <v>162</v>
       </c>
@@ -2183,7 +2240,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>173</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2203,7 +2260,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>176</v>
       </c>
@@ -2221,7 +2278,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>179</v>
       </c>
@@ -2259,7 +2316,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2279,6 +2336,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
         <v>191</v>
       </c>
@@ -2288,8 +2346,15 @@
       <c r="D35" s="3">
         <v>1</v>
       </c>
+      <c r="E35" s="3">
+        <v>453.59237000000002</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
       <c r="B36" s="3" t="s">
         <v>192</v>
       </c>
@@ -2299,8 +2364,15 @@
       <c r="D36" s="3">
         <v>1</v>
       </c>
+      <c r="E36" s="3">
+        <v>28.349523125000001</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
         <v>189</v>
       </c>
@@ -2310,8 +2382,15 @@
       <c r="D37" s="3">
         <v>1</v>
       </c>
+      <c r="E37" s="3">
+        <v>14593.903</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
         <v>193</v>
       </c>
@@ -2321,8 +2400,15 @@
       <c r="D38" s="3">
         <v>1</v>
       </c>
+      <c r="E38" s="3">
+        <v>373.24172160000001</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
       <c r="B39" s="3" t="s">
         <v>194</v>
       </c>
@@ -2332,8 +2418,15 @@
       <c r="D39" s="3">
         <v>1</v>
       </c>
+      <c r="E39" s="3">
+        <v>907184.74</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
       <c r="B40" s="3" t="s">
         <v>196</v>
       </c>
@@ -2343,8 +2436,15 @@
       <c r="D40" s="3">
         <v>1</v>
       </c>
+      <c r="E40" s="3">
+        <v>1016046.9088</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
       <c r="B41" s="3" t="s">
         <v>198</v>
       </c>
@@ -2354,43 +2454,71 @@
       <c r="D41" s="3">
         <v>1</v>
       </c>
+      <c r="E41" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
       <c r="B42" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>31.103476799999999</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.205196548333</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6.4798910000000001E-2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>164</v>
@@ -2406,18 +2534,180 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="B46" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>60</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8">
+        <v>86400</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>31557600</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>

--- a/Unidades.xlsx
+++ b/Unidades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -792,10 +792,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1100,7 +1100,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1181,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1590,7 +1594,7 @@
         <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -1704,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -1720,30 +1724,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="3" t="s">
         <v>178</v>
       </c>
@@ -1752,7 +1756,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1772,7 +1776,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>126</v>
       </c>
@@ -1790,7 +1794,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>127</v>
       </c>
@@ -1808,7 +1812,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>128</v>
       </c>
@@ -1826,7 +1830,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>129</v>
       </c>
@@ -1844,7 +1848,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>130</v>
       </c>
@@ -1862,7 +1866,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>131</v>
       </c>
@@ -1880,7 +1884,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>132</v>
       </c>
@@ -1898,7 +1902,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>133</v>
       </c>
@@ -1916,7 +1920,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>135</v>
       </c>
@@ -1934,7 +1938,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>169</v>
       </c>
@@ -1952,7 +1956,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>170</v>
       </c>
@@ -1970,7 +1974,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>137</v>
       </c>
@@ -1988,7 +1992,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>138</v>
       </c>
@@ -2006,7 +2010,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>141</v>
       </c>
@@ -2024,7 +2028,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>143</v>
       </c>
@@ -2042,7 +2046,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>144</v>
       </c>
@@ -2060,7 +2064,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>146</v>
       </c>
@@ -2078,7 +2082,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>147</v>
       </c>
@@ -2096,7 +2100,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>149</v>
       </c>
@@ -2114,7 +2118,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
         <v>151</v>
       </c>
@@ -2132,7 +2136,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>153</v>
       </c>
@@ -2150,7 +2154,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>155</v>
       </c>
@@ -2168,7 +2172,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>156</v>
       </c>
@@ -2186,7 +2190,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>158</v>
       </c>
@@ -2204,7 +2208,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>160</v>
       </c>
@@ -2222,7 +2226,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="3" t="s">
         <v>162</v>
       </c>
@@ -2240,7 +2244,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>173</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2260,7 +2264,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>176</v>
       </c>
@@ -2278,7 +2282,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="3" t="s">
         <v>179</v>
       </c>
@@ -2316,7 +2320,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2336,7 +2340,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="3" t="s">
         <v>191</v>
       </c>
@@ -2354,7 +2358,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="3" t="s">
         <v>192</v>
       </c>
@@ -2372,7 +2376,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="3" t="s">
         <v>189</v>
       </c>
@@ -2390,7 +2394,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="3" t="s">
         <v>193</v>
       </c>
@@ -2408,7 +2412,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="3" t="s">
         <v>194</v>
       </c>
@@ -2426,7 +2430,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="3" t="s">
         <v>196</v>
       </c>
@@ -2444,7 +2448,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="3" t="s">
         <v>198</v>
       </c>
@@ -2462,7 +2466,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="3" t="s">
         <v>206</v>
       </c>
@@ -2480,7 +2484,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="3" t="s">
         <v>201</v>
       </c>
@@ -2498,7 +2502,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="3" t="s">
         <v>202</v>
       </c>
@@ -2516,7 +2520,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="3" t="s">
         <v>203</v>
       </c>
@@ -2554,7 +2558,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -2574,7 +2578,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="3" t="s">
         <v>212</v>
       </c>
@@ -2592,7 +2596,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="3" t="s">
         <v>213</v>
       </c>
@@ -2610,7 +2614,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="3" t="s">
         <v>214</v>
       </c>
@@ -2628,7 +2632,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="3" t="s">
         <v>215</v>
       </c>
@@ -2646,7 +2650,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>219</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2666,7 +2670,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="3" t="s">
         <v>222</v>
       </c>
@@ -2705,15 +2709,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:A29"/>
     <mergeCell ref="A34:A45"/>
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Unidades.xlsx
+++ b/Unidades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -747,12 +747,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -767,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -796,6 +802,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1708,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2065,7 @@
       <c r="D19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="11">
         <v>63.614907234075197</v>
       </c>
       <c r="F19" s="3">
@@ -2709,15 +2718,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:A29"/>
     <mergeCell ref="A34:A45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
